--- a/Unity/Assets/Config/Excel/FuntionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/FuntionConfig.xlsx
@@ -1,39 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1A6DC9-76BD-452B-9726-45C4CB7B7D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -42,7 +48,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -51,14 +56,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -67,7 +71,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -76,14 +79,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -92,7 +94,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="158">
   <si>
     <t>#</t>
   </si>
@@ -137,6 +138,12 @@
     <t>是否开启</t>
   </si>
   <si>
+    <t>刷怪场景</t>
+  </si>
+  <si>
+    <t>刷怪配置</t>
+  </si>
+  <si>
     <t>Name</t>
   </si>
   <si>
@@ -155,6 +162,12 @@
     <t>IfOpen</t>
   </si>
   <si>
+    <t>SceneId</t>
+  </si>
+  <si>
+    <t>CreateMonsterPosi</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -281,10 +294,13 @@
     <t>UIGemMake</t>
   </si>
   <si>
+    <t>红包活动</t>
+  </si>
+  <si>
     <t>UIHongBao</t>
   </si>
   <si>
-    <t>19;30@20;00</t>
+    <t>9;30@23;00</t>
   </si>
   <si>
     <t>收集</t>
@@ -293,12 +309,12 @@
     <t>UIShouJi</t>
   </si>
   <si>
+    <t>战场活动</t>
+  </si>
+  <si>
     <t>UIBattle</t>
   </si>
   <si>
-    <t>20;30@21;00</t>
-  </si>
-  <si>
     <t>附魔学习</t>
   </si>
   <si>
@@ -311,6 +327,9 @@
     <t>试炼副本</t>
   </si>
   <si>
+    <t>UITrial</t>
+  </si>
+  <si>
     <t>神器商人</t>
   </si>
   <si>
@@ -329,7 +348,7 @@
     <t>UITaskGet</t>
   </si>
   <si>
-    <t>19;40@19;50@20;00</t>
+    <t>9;30@15;00@15;10</t>
   </si>
   <si>
     <t>家园仓库</t>
@@ -380,12 +399,12 @@
     <t>UIJiaYuanRecord</t>
   </si>
   <si>
+    <t>拍卖特惠</t>
+  </si>
+  <si>
     <t>UIPaiMaiAuction</t>
   </si>
   <si>
-    <t>20;00@20;30</t>
-  </si>
-  <si>
     <t>家族捐献</t>
   </si>
   <si>
@@ -401,9 +420,6 @@
     <t>家族BOSS</t>
   </si>
   <si>
-    <t>22;00@23;00</t>
-  </si>
-  <si>
     <t>家族争霸</t>
   </si>
   <si>
@@ -452,10 +468,7 @@
     <t>狩猎活动</t>
   </si>
   <si>
-    <t>21;30@21;40</t>
-  </si>
-  <si>
-    <t>2,4,6</t>
+    <t>UIHunt</t>
   </si>
   <si>
     <t>觉醒大师</t>
@@ -476,9 +489,6 @@
     <t>uihappy</t>
   </si>
   <si>
-    <t>1,3,5,0</t>
-  </si>
-  <si>
     <t>家族商店</t>
   </si>
   <si>
@@ -491,6 +501,9 @@
     <t>UITurtle</t>
   </si>
   <si>
+    <t>变身比赛</t>
+  </si>
+  <si>
     <t>UIRunRace</t>
   </si>
   <si>
@@ -500,179 +513,89 @@
     <t>UIDemon</t>
   </si>
   <si>
-    <t>刷怪场景</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>刷怪配置</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>SceneId</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateMonsterPosi</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>int[]</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>活动-世界领主</t>
   </si>
   <si>
     <t>活动-宝藏活动</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动-世界领主</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,4,6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>19;50@20;00</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>22;20@22;22@22;30</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UITrial</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>21;30@22;00</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>22;00@22;20</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>变身比赛</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>争霸捐献</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIDonation</t>
   </si>
   <si>
     <t>开区奖励</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIZhanQu</t>
   </si>
   <si>
     <t>活跃</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UICountry</t>
   </si>
   <si>
     <t>商城</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIRecharge</t>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍卖特惠</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>红包活动</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIActivity</t>
   </si>
   <si>
     <t>新年活动</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UINewYear</t>
   </si>
   <si>
     <t>萌新福利</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIWelfare</t>
   </si>
   <si>
     <t>分享</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>战场活动</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIFenXiang</t>
   </si>
   <si>
     <t>世界等级</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIDonation</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UICountry</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIRecharge</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIActivity</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UINewYear</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIWelfare</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIHunt</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIZhanQu</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIFenXiang</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>UIWorldLv</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>21;00@21;02@21;30</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>赛季</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>UISeason</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>家族科技</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>UIUnionKeJi</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,7 +607,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -692,39 +614,172 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -737,8 +792,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -746,9 +987,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -769,17 +1252,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1066,19 +1593,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B59" workbookViewId="0">
-      <selection activeCell="I81" sqref="I81"/>
+    <sheetView tabSelected="1" topLeftCell="B57" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
@@ -1095,7 +1622,7 @@
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1107,7 +1634,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -1121,7 +1648,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1147,81 +1674,81 @@
         <v>8</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>130</v>
+        <v>9</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C5" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C6" s="2">
         <v>1001</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
@@ -1236,15 +1763,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C7" s="2">
         <v>1002</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
@@ -1259,15 +1786,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C8" s="2">
         <v>1003</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
@@ -1285,15 +1812,15 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C9" s="2">
         <v>1004</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
@@ -1311,15 +1838,15 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C10" s="2">
         <v>1005</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
@@ -1337,15 +1864,15 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C11" s="2">
         <v>1006</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F11" s="2">
         <v>1</v>
@@ -1363,15 +1890,15 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C12" s="2">
         <v>1007</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F12" s="2">
         <v>1</v>
@@ -1389,15 +1916,15 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C13" s="2">
         <v>1008</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F13" s="2">
         <v>1</v>
@@ -1415,15 +1942,15 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C14" s="2">
         <v>1009</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2">
         <v>1</v>
@@ -1441,15 +1968,15 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C15" s="2">
         <v>1010</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2">
         <v>1</v>
@@ -1467,15 +1994,15 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C16" s="2">
         <v>1011</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
@@ -1493,15 +2020,15 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C17" s="2">
         <v>1012</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2">
         <v>1</v>
@@ -1519,15 +2046,15 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C18" s="2">
         <v>1013</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
@@ -1545,15 +2072,15 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C19" s="2">
         <v>1014</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
@@ -1571,15 +2098,15 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C20" s="2">
         <v>1015</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2">
         <v>1</v>
@@ -1597,15 +2124,15 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C21" s="2">
         <v>1016</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2">
         <v>1</v>
@@ -1623,15 +2150,15 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C22" s="2">
         <v>1017</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
@@ -1649,15 +2176,15 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C23" s="2">
         <v>1018</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2">
         <v>1</v>
@@ -1675,15 +2202,15 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C24" s="2">
         <v>1019</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2">
         <v>1</v>
@@ -1701,15 +2228,15 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C25" s="2">
         <v>1020</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2">
         <v>1</v>
@@ -1727,15 +2254,15 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C26" s="2">
         <v>1021</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
@@ -1753,15 +2280,15 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" ht="20.1" customHeight="1" spans="3:10">
       <c r="C27" s="4">
         <v>1022</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F27" s="4">
         <v>1</v>
@@ -1776,15 +2303,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" ht="20.1" customHeight="1" spans="3:10">
       <c r="C28" s="4">
         <v>1023</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F28" s="4">
         <v>1</v>
@@ -1793,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I28" s="2">
         <v>-1</v>
@@ -1802,15 +2329,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" ht="20.1" customHeight="1" spans="3:10">
       <c r="C29" s="4">
         <v>1024</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -1826,15 +2353,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" ht="20.1" customHeight="1" spans="3:10">
       <c r="C30" s="4">
         <v>1025</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
@@ -1843,7 +2370,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I30" s="2">
         <v>-1</v>
@@ -1852,15 +2379,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" ht="20.1" customHeight="1" spans="3:10">
       <c r="C31" s="2">
         <v>1026</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F31" s="2">
         <v>1</v>
@@ -1875,15 +2402,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="20.1" customHeight="1" spans="3:10">
       <c r="C32" s="4">
         <v>1027</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
@@ -1898,15 +2425,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" ht="20.1" customHeight="1" spans="3:10">
       <c r="C33" s="2">
         <v>1028</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>141</v>
+        <v>72</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -1921,15 +2448,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" ht="20.1" customHeight="1" spans="3:10">
       <c r="C34" s="4">
         <v>1029</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
@@ -1944,15 +2471,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="20.1" customHeight="1" spans="3:10">
       <c r="C35" s="4">
         <v>1030</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -1967,15 +2494,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" ht="20.1" customHeight="1" spans="3:10">
       <c r="C36" s="4">
         <v>1031</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -1984,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I36" s="2">
         <v>-1</v>
@@ -1993,15 +2520,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="20.1" customHeight="1" spans="3:10">
       <c r="C37" s="4">
         <v>1032</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -2016,15 +2543,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" ht="20.1" customHeight="1" spans="3:10">
       <c r="C38" s="4">
         <v>1033</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
@@ -2039,15 +2566,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" ht="20.1" customHeight="1" spans="3:10">
       <c r="C39" s="4">
         <v>1034</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -2062,15 +2589,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" ht="20.1" customHeight="1" spans="3:10">
       <c r="C40" s="4">
         <v>1035</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
@@ -2085,15 +2612,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" ht="20.1" customHeight="1" spans="3:10">
       <c r="C41" s="4">
         <v>1036</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -2108,15 +2635,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="20.1" customHeight="1" spans="3:10">
       <c r="C42" s="4">
         <v>1037</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
@@ -2131,15 +2658,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" ht="20.1" customHeight="1" spans="3:10">
       <c r="C43" s="4">
         <v>1038</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
@@ -2154,15 +2681,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" ht="20.1" customHeight="1" spans="3:10">
       <c r="C44" s="4">
         <v>1039</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -2177,15 +2704,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" ht="20.1" customHeight="1" spans="3:10">
       <c r="C45" s="4">
         <v>1040</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
@@ -2194,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="I45" s="2">
         <v>-1</v>
@@ -2203,15 +2730,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" ht="20.1" customHeight="1" spans="3:10">
       <c r="C46" s="4">
         <v>1041</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -2226,15 +2753,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" ht="20.1" customHeight="1" spans="3:10">
       <c r="C47" s="4">
         <v>1042</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
@@ -2249,12 +2776,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" ht="20.1" customHeight="1" spans="3:10">
       <c r="C48" s="4">
         <v>1043</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
@@ -2262,8 +2789,8 @@
       <c r="G48" s="4">
         <v>1</v>
       </c>
-      <c r="H48" s="4" t="s">
-        <v>97</v>
+      <c r="H48" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="I48" s="2">
         <v>-1</v>
@@ -2272,12 +2799,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" ht="20.1" customHeight="1" spans="3:10">
       <c r="C49" s="4">
         <v>1044</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
@@ -2285,25 +2812,25 @@
       <c r="G49" s="4">
         <v>1</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>142</v>
+      <c r="H49" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="I49" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J49" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" ht="20.1" customHeight="1" spans="3:10">
       <c r="C50" s="4">
         <v>1045</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
@@ -2311,25 +2838,25 @@
       <c r="G50" s="4">
         <v>1</v>
       </c>
-      <c r="H50" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>122</v>
+      <c r="H50" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I50" s="2">
+        <v>-1</v>
       </c>
       <c r="J50" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" ht="20.1" customHeight="1" spans="3:10">
       <c r="C51" s="4">
         <v>1046</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -2344,15 +2871,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" ht="20.1" customHeight="1" spans="3:10">
       <c r="C52" s="4">
         <v>1047</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -2367,15 +2894,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" ht="20.1" customHeight="1" spans="3:10">
       <c r="C53" s="4">
         <v>1048</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -2390,15 +2917,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" ht="20.1" customHeight="1" spans="3:10">
       <c r="C54" s="4">
         <v>1049</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -2413,15 +2940,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" ht="20.1" customHeight="1" spans="3:10">
       <c r="C55" s="4">
         <v>1050</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
@@ -2436,15 +2963,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" ht="20.1" customHeight="1" spans="3:10">
       <c r="C56" s="4">
         <v>1051</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -2459,15 +2986,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" ht="20.1" customHeight="1" spans="3:10">
       <c r="C57" s="4">
         <v>1052</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="F57" s="4">
         <v>1</v>
@@ -2475,25 +3002,25 @@
       <c r="G57" s="4">
         <v>1</v>
       </c>
-      <c r="H57" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>115</v>
+      <c r="H57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I57" s="2">
+        <v>-1</v>
       </c>
       <c r="J57" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" ht="20.1" customHeight="1" spans="3:10">
       <c r="C58" s="4">
         <v>1053</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F58" s="4">
         <v>2</v>
@@ -2508,15 +3035,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" ht="20.1" customHeight="1" spans="3:10">
       <c r="C59" s="4">
         <v>1054</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F59" s="4">
         <v>1</v>
@@ -2531,15 +3058,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" ht="20.1" customHeight="1" spans="3:10">
       <c r="C60" s="4">
         <v>1055</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F60" s="4">
         <v>1</v>
@@ -2547,25 +3074,25 @@
       <c r="G60" s="4">
         <v>1</v>
       </c>
-      <c r="H60" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>122</v>
+      <c r="H60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I60" s="2">
+        <v>-1</v>
       </c>
       <c r="J60" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" ht="20.1" customHeight="1" spans="3:10">
       <c r="C61" s="4">
         <v>1056</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F61" s="4">
         <v>1</v>
@@ -2573,22 +3100,22 @@
       <c r="G61" s="4">
         <v>1</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I61" s="2">
         <v>-1</v>
       </c>
       <c r="J61" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" ht="20.1" customHeight="1" spans="3:10">
       <c r="C62" s="4">
         <v>1057</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F62" s="4">
         <v>1</v>
@@ -2596,25 +3123,25 @@
       <c r="G62" s="4">
         <v>1</v>
       </c>
-      <c r="H62" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I62" s="4" t="s">
-        <v>138</v>
+      <c r="H62" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I62" s="2">
+        <v>-1</v>
       </c>
       <c r="J62" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" ht="20.1" customHeight="1" spans="3:10">
       <c r="C63" s="4">
         <v>1058</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F63" s="4">
         <v>1</v>
@@ -2622,25 +3149,25 @@
       <c r="G63" s="4">
         <v>1</v>
       </c>
-      <c r="H63" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>138</v>
+      <c r="H63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I63" s="2">
+        <v>-1</v>
       </c>
       <c r="J63" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" ht="20.1" customHeight="1" spans="3:10">
       <c r="C64" s="4">
         <v>1059</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F64" s="4">
         <v>1</v>
@@ -2648,22 +3175,22 @@
       <c r="G64" s="4">
         <v>1</v>
       </c>
-      <c r="H64" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="I64" s="4">
+      <c r="H64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I64" s="2">
         <v>-1</v>
       </c>
       <c r="J64" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" ht="20.1" customHeight="1" spans="3:12">
       <c r="C65" s="4">
         <v>1060</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -2671,8 +3198,8 @@
       <c r="G65" s="4">
         <v>1</v>
       </c>
-      <c r="I65" s="4" t="s">
-        <v>122</v>
+      <c r="I65" s="2">
+        <v>-1</v>
       </c>
       <c r="J65" s="2">
         <v>0</v>
@@ -2684,12 +3211,12 @@
         <v>20001</v>
       </c>
     </row>
-    <row r="66" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" ht="20.1" customHeight="1" spans="3:12">
       <c r="C66" s="4">
         <v>1061</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>
@@ -2697,8 +3224,8 @@
       <c r="G66" s="4">
         <v>1</v>
       </c>
-      <c r="I66" s="4" t="s">
-        <v>122</v>
+      <c r="I66" s="2">
+        <v>-1</v>
       </c>
       <c r="J66" s="2">
         <v>0</v>
@@ -2710,15 +3237,15 @@
         <v>90101</v>
       </c>
     </row>
-    <row r="67" spans="3:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" ht="18.75" customHeight="1" spans="3:12">
       <c r="C67" s="4">
         <v>1062</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="F67" s="4">
         <v>1</v>
@@ -2726,7 +3253,7 @@
       <c r="G67" s="4">
         <v>15</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I67" s="2">
         <v>-1</v>
       </c>
       <c r="J67" s="2">
@@ -2739,15 +3266,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" ht="20.1" customHeight="1" spans="3:12">
       <c r="C68" s="4">
         <v>1063</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="F68" s="4">
         <v>1</v>
@@ -2755,7 +3282,7 @@
       <c r="G68" s="4">
         <v>12</v>
       </c>
-      <c r="I68" s="4">
+      <c r="I68" s="2">
         <v>-1</v>
       </c>
       <c r="J68" s="2">
@@ -2768,15 +3295,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" ht="20.1" customHeight="1" spans="3:12">
       <c r="C69" s="4">
         <v>1064</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="F69" s="4">
         <v>1</v>
@@ -2784,7 +3311,7 @@
       <c r="G69" s="4">
         <v>5</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I69" s="2">
         <v>-1</v>
       </c>
       <c r="J69" s="2">
@@ -2797,15 +3324,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" ht="20.1" customHeight="1" spans="3:12">
       <c r="C70" s="4">
         <v>1065</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F70" s="4">
         <v>1</v>
@@ -2813,7 +3340,7 @@
       <c r="G70" s="4">
         <v>1</v>
       </c>
-      <c r="I70" s="4">
+      <c r="I70" s="2">
         <v>-1</v>
       </c>
       <c r="J70" s="2">
@@ -2826,15 +3353,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" ht="20.1" customHeight="1" spans="3:12">
       <c r="C71" s="4">
         <v>1066</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="F71" s="4">
         <v>1</v>
@@ -2842,7 +3369,7 @@
       <c r="G71" s="4">
         <v>1</v>
       </c>
-      <c r="I71" s="4">
+      <c r="I71" s="2">
         <v>-1</v>
       </c>
       <c r="J71" s="2">
@@ -2855,15 +3382,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" ht="20.1" customHeight="1" spans="3:12">
       <c r="C72" s="4">
         <v>1067</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="F72" s="4">
         <v>1</v>
@@ -2871,7 +3398,7 @@
       <c r="G72" s="4">
         <v>2</v>
       </c>
-      <c r="I72" s="4">
+      <c r="I72" s="2">
         <v>-1</v>
       </c>
       <c r="J72" s="2">
@@ -2884,15 +3411,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" ht="20.1" customHeight="1" spans="3:12">
       <c r="C73" s="4">
         <v>1068</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="F73" s="4">
         <v>1</v>
@@ -2900,7 +3427,7 @@
       <c r="G73" s="4">
         <v>1</v>
       </c>
-      <c r="I73" s="4">
+      <c r="I73" s="2">
         <v>-1</v>
       </c>
       <c r="J73" s="2">
@@ -2913,15 +3440,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" ht="20.1" customHeight="1" spans="3:12">
       <c r="C74" s="4">
         <v>1069</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F74" s="4">
         <v>1</v>
@@ -2929,7 +3456,7 @@
       <c r="G74" s="4">
         <v>3</v>
       </c>
-      <c r="I74" s="4">
+      <c r="I74" s="2">
         <v>-1</v>
       </c>
       <c r="J74" s="2">
@@ -2942,15 +3469,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" ht="20.1" customHeight="1" spans="3:12">
       <c r="C75" s="4">
         <v>1070</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F75" s="4">
         <v>1</v>
@@ -2958,7 +3485,7 @@
       <c r="G75" s="4">
         <v>10</v>
       </c>
-      <c r="I75" s="4">
+      <c r="I75" s="2">
         <v>-1</v>
       </c>
       <c r="J75" s="2">
@@ -2971,15 +3498,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" ht="20.1" customHeight="1" spans="3:10">
       <c r="C76" s="4">
         <v>1071</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F76" s="4">
         <v>1</v>
@@ -2987,22 +3514,22 @@
       <c r="G76" s="4">
         <v>55</v>
       </c>
-      <c r="I76" s="4">
+      <c r="I76" s="2">
         <v>-1</v>
       </c>
       <c r="J76" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" ht="20.1" customHeight="1" spans="3:10">
       <c r="C77" s="4">
         <v>1072</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
@@ -3017,22 +3544,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="20.1" customHeight="1"/>
+    <row r="79" ht="20.1" customHeight="1"/>
+    <row r="80" ht="20.1" customHeight="1"/>
+    <row r="81" ht="20.1" customHeight="1"/>
+    <row r="82" ht="20.1" customHeight="1"/>
+    <row r="83" ht="20.1" customHeight="1"/>
+    <row r="84" ht="20.1" customHeight="1"/>
+    <row r="85" ht="20.1" customHeight="1"/>
+    <row r="86" ht="20.1" customHeight="1"/>
+    <row r="87" ht="20.1" customHeight="1"/>
+    <row r="88" ht="20.1" customHeight="1"/>
+    <row r="89" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/FuntionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/FuntionConfig.xlsx
@@ -595,7 +595,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,13 +615,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1103,133 +1096,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1248,7 +1241,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1601,8 +1594,8 @@
   <sheetPr/>
   <dimension ref="C1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B57" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="L66" sqref="L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3234,7 +3227,7 @@
         <v>2000001</v>
       </c>
       <c r="L66" s="2">
-        <v>90101</v>
+        <v>20001</v>
       </c>
     </row>
     <row r="67" ht="18.75" customHeight="1" spans="3:12">

--- a/Unity/Assets/Config/Excel/FuntionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/FuntionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="159">
   <si>
     <t>#</t>
   </si>
@@ -505,6 +505,9 @@
   </si>
   <si>
     <t>UIRunRace</t>
+  </si>
+  <si>
+    <t>9;30@22;00@23;10</t>
   </si>
   <si>
     <t>恶魔活动</t>
@@ -1594,8 +1597,8 @@
   <sheetPr/>
   <dimension ref="C1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="L66" sqref="L66"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3143,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="I63" s="2">
         <v>-1</v>
@@ -3157,19 +3160,19 @@
         <v>1059</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F64" s="4">
-        <v>1</v>
-      </c>
-      <c r="G64" s="4">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="I64" s="2">
         <v>-1</v>
@@ -3183,7 +3186,7 @@
         <v>1060</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -3209,7 +3212,7 @@
         <v>1061</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>
@@ -3235,10 +3238,10 @@
         <v>1062</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F67" s="4">
         <v>1</v>
@@ -3264,10 +3267,10 @@
         <v>1063</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F68" s="4">
         <v>1</v>
@@ -3293,10 +3296,10 @@
         <v>1064</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F69" s="4">
         <v>1</v>
@@ -3322,10 +3325,10 @@
         <v>1065</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F70" s="4">
         <v>1</v>
@@ -3351,10 +3354,10 @@
         <v>1066</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F71" s="4">
         <v>1</v>
@@ -3380,10 +3383,10 @@
         <v>1067</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F72" s="4">
         <v>1</v>
@@ -3409,10 +3412,10 @@
         <v>1068</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F73" s="4">
         <v>1</v>
@@ -3438,10 +3441,10 @@
         <v>1069</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F74" s="4">
         <v>1</v>
@@ -3467,10 +3470,10 @@
         <v>1070</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F75" s="4">
         <v>1</v>
@@ -3496,10 +3499,10 @@
         <v>1071</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F76" s="4">
         <v>1</v>
@@ -3519,10 +3522,10 @@
         <v>1072</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>

--- a/Unity/Assets/Config/Excel/FuntionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/FuntionConfig.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="160">
   <si>
     <t>#</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>UIBattle</t>
+  </si>
+  <si>
+    <t>22;30@23;00</t>
   </si>
   <si>
     <t>附魔学习</t>
@@ -1598,7 +1601,7 @@
   <dimension ref="C1:L89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2366,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="I30" s="2">
         <v>-1</v>
@@ -2380,7 +2383,7 @@
         <v>1026</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>33</v>
@@ -2403,10 +2406,10 @@
         <v>1027</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F32" s="4">
         <v>1</v>
@@ -2426,10 +2429,10 @@
         <v>1028</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F33" s="4">
         <v>1</v>
@@ -2449,10 +2452,10 @@
         <v>1029</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
@@ -2472,10 +2475,10 @@
         <v>1030</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
@@ -2495,10 +2498,10 @@
         <v>1031</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -2507,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I36" s="2">
         <v>-1</v>
@@ -2521,10 +2524,10 @@
         <v>1032</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -2544,10 +2547,10 @@
         <v>1033</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
@@ -2567,10 +2570,10 @@
         <v>1034</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -2590,10 +2593,10 @@
         <v>1035</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
@@ -2613,10 +2616,10 @@
         <v>1036</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -2636,10 +2639,10 @@
         <v>1037</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
@@ -2659,10 +2662,10 @@
         <v>1038</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
@@ -2682,10 +2685,10 @@
         <v>1039</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -2705,10 +2708,10 @@
         <v>1040</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
@@ -2731,10 +2734,10 @@
         <v>1041</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -2754,10 +2757,10 @@
         <v>1042</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
@@ -2777,7 +2780,7 @@
         <v>1043</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
@@ -2800,7 +2803,7 @@
         <v>1044</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
@@ -2823,10 +2826,10 @@
         <v>1045</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
@@ -2849,10 +2852,10 @@
         <v>1046</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -2872,10 +2875,10 @@
         <v>1047</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -2895,10 +2898,10 @@
         <v>1048</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -2918,10 +2921,10 @@
         <v>1049</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -2941,10 +2944,10 @@
         <v>1050</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
@@ -2964,10 +2967,10 @@
         <v>1051</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -2987,10 +2990,10 @@
         <v>1052</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F57" s="4">
         <v>1</v>
@@ -3013,10 +3016,10 @@
         <v>1053</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F58" s="4">
         <v>2</v>
@@ -3036,10 +3039,10 @@
         <v>1054</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F59" s="4">
         <v>1</v>
@@ -3059,10 +3062,10 @@
         <v>1055</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F60" s="4">
         <v>1</v>
@@ -3085,10 +3088,10 @@
         <v>1056</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F61" s="4">
         <v>1</v>
@@ -3108,10 +3111,10 @@
         <v>1057</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F62" s="4">
         <v>1</v>
@@ -3134,10 +3137,10 @@
         <v>1058</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F63" s="4">
         <v>1</v>
@@ -3146,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I63" s="2">
         <v>-1</v>
@@ -3160,19 +3163,19 @@
         <v>1059</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F64" s="4">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F64" s="4">
-        <v>1</v>
-      </c>
-      <c r="G64" s="4">
-        <v>1</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="I64" s="2">
         <v>-1</v>
@@ -3186,7 +3189,7 @@
         <v>1060</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -3212,7 +3215,7 @@
         <v>1061</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>
@@ -3238,10 +3241,10 @@
         <v>1062</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F67" s="4">
         <v>1</v>
@@ -3267,10 +3270,10 @@
         <v>1063</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F68" s="4">
         <v>1</v>
@@ -3296,10 +3299,10 @@
         <v>1064</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F69" s="4">
         <v>1</v>
@@ -3325,10 +3328,10 @@
         <v>1065</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F70" s="4">
         <v>1</v>
@@ -3354,10 +3357,10 @@
         <v>1066</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F71" s="4">
         <v>1</v>
@@ -3383,10 +3386,10 @@
         <v>1067</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F72" s="4">
         <v>1</v>
@@ -3412,10 +3415,10 @@
         <v>1068</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F73" s="4">
         <v>1</v>
@@ -3441,10 +3444,10 @@
         <v>1069</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F74" s="4">
         <v>1</v>
@@ -3470,10 +3473,10 @@
         <v>1070</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F75" s="4">
         <v>1</v>
@@ -3499,10 +3502,10 @@
         <v>1071</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F76" s="4">
         <v>1</v>
@@ -3522,10 +3525,10 @@
         <v>1072</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>

--- a/Unity/Assets/Config/Excel/FuntionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/FuntionConfig.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="162">
   <si>
     <t>#</t>
   </si>
@@ -589,6 +589,12 @@
   </si>
   <si>
     <t>UIUnionKeJi</t>
+  </si>
+  <si>
+    <t>家族</t>
+  </si>
+  <si>
+    <t>UIUnion</t>
   </si>
 </sst>
 </file>
@@ -1600,8 +1606,8 @@
   <sheetPr/>
   <dimension ref="C1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="B56" workbookViewId="0">
+      <selection activeCell="B78" sqref="$A78:$XFD78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3543,7 +3549,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="20.1" customHeight="1"/>
+    <row r="78" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C78" s="4">
+        <v>1073</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F78" s="4">
+        <v>1</v>
+      </c>
+      <c r="G78" s="4">
+        <v>1</v>
+      </c>
+      <c r="I78" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J78" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="79" ht="20.1" customHeight="1"/>
     <row r="80" ht="20.1" customHeight="1"/>
     <row r="81" ht="20.1" customHeight="1"/>

--- a/Unity/Assets/Config/Excel/FuntionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/FuntionConfig.xlsx
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="164">
   <si>
     <t>#</t>
   </si>
@@ -595,6 +595,12 @@
   </si>
   <si>
     <t>UIUnion</t>
+  </si>
+  <si>
+    <t>宠物挑战赛</t>
+  </si>
+  <si>
+    <t>20;00@20;30</t>
   </si>
 </sst>
 </file>
@@ -1606,8 +1612,8 @@
   <sheetPr/>
   <dimension ref="C1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B56" workbookViewId="0">
-      <selection activeCell="B78" sqref="$A78:$XFD78"/>
+    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
+      <selection activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3572,7 +3578,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" ht="20.1" customHeight="1"/>
+    <row r="79" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C79" s="4">
+        <v>1074</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1</v>
+      </c>
+      <c r="G79" s="4">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I79" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J79" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="80" ht="20.1" customHeight="1"/>
     <row r="81" ht="20.1" customHeight="1"/>
     <row r="82" ht="20.1" customHeight="1"/>

--- a/Unity/Assets/Config/Excel/FuntionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/FuntionConfig.xlsx
@@ -600,7 +600,7 @@
     <t>宠物挑战赛</t>
   </si>
   <si>
-    <t>20;00@20;30</t>
+    <t>10;00@20;30</t>
   </si>
 </sst>
 </file>
@@ -1612,8 +1612,8 @@
   <sheetPr/>
   <dimension ref="C1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Unity/Assets/Config/Excel/FuntionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/FuntionConfig.xlsx
@@ -1613,7 +1613,7 @@
   <dimension ref="C1:L89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3523,7 +3523,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="4">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="I76" s="2">
         <v>-1</v>

--- a/Unity/Assets/Config/Excel/FuntionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/FuntionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="166">
   <si>
     <t>#</t>
   </si>
@@ -601,6 +601,12 @@
   </si>
   <si>
     <t>10;00@20;30</t>
+  </si>
+  <si>
+    <t>宠物装备制造师</t>
+  </si>
+  <si>
+    <t>DlgPetEquipMake</t>
   </si>
 </sst>
 </file>
@@ -1612,8 +1618,8 @@
   <sheetPr/>
   <dimension ref="C1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3601,7 +3607,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" ht="20.1" customHeight="1"/>
+    <row r="80" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C80" s="4">
+        <v>1075</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1</v>
+      </c>
+      <c r="G80" s="4">
+        <v>1</v>
+      </c>
+      <c r="I80" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J80" s="2">
+        <v>0</v>
+      </c>
+    </row>
     <row r="81" ht="20.1" customHeight="1"/>
     <row r="82" ht="20.1" customHeight="1"/>
     <row r="83" ht="20.1" customHeight="1"/>

--- a/Unity/Assets/Config/Excel/FuntionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/FuntionConfig.xlsx
@@ -1,45 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83584392-5CF2-459E-84E2-BF592B282D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12795"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Admin</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -48,6 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -56,13 +51,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1">
+    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -71,6 +67,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -79,13 +76,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -94,6 +92,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -109,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="164">
   <si>
     <t>#</t>
   </si>
@@ -315,9 +314,6 @@
     <t>UIBattle</t>
   </si>
   <si>
-    <t>22;30@23;00</t>
-  </si>
-  <si>
     <t>附魔学习</t>
   </si>
   <si>
@@ -351,9 +347,6 @@
     <t>UITaskGet</t>
   </si>
   <si>
-    <t>9;30@15;00@15;10</t>
-  </si>
-  <si>
     <t>家园仓库</t>
   </si>
   <si>
@@ -510,9 +503,6 @@
     <t>UIRunRace</t>
   </si>
   <si>
-    <t>9;30@22;00@23;10</t>
-  </si>
-  <si>
     <t>恶魔活动</t>
   </si>
   <si>
@@ -607,19 +597,17 @@
   </si>
   <si>
     <t>DlgPetEquipMake</t>
+  </si>
+  <si>
+    <t>20;30@21;00</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,6 +619,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -638,165 +627,31 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -809,194 +664,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1004,251 +673,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1265,65 +692,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1610,19 +993,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="J77" sqref="J77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
@@ -1639,7 +1022,7 @@
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="1" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1651,7 +1034,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="2" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -1665,7 +1048,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="3" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1697,7 +1080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="4" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1727,7 +1110,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="5" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1757,7 +1140,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="6" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="2">
         <v>1001</v>
       </c>
@@ -1780,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
+    <row r="7" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="2">
         <v>1002</v>
       </c>
@@ -1803,7 +1186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="8" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="2">
         <v>1003</v>
       </c>
@@ -1829,7 +1212,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="9" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="2">
         <v>1004</v>
       </c>
@@ -1855,7 +1238,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="10" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="2">
         <v>1005</v>
       </c>
@@ -1881,7 +1264,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="11" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="2">
         <v>1006</v>
       </c>
@@ -1907,7 +1290,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="12" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="2">
         <v>1007</v>
       </c>
@@ -1933,7 +1316,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="13" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="2">
         <v>1008</v>
       </c>
@@ -1959,7 +1342,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="14" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="2">
         <v>1009</v>
       </c>
@@ -1985,7 +1368,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="15" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="2">
         <v>1010</v>
       </c>
@@ -2011,7 +1394,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="16" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="2">
         <v>1011</v>
       </c>
@@ -2037,7 +1420,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="17" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="2">
         <v>1012</v>
       </c>
@@ -2063,7 +1446,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="18" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="2">
         <v>1013</v>
       </c>
@@ -2089,7 +1472,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="19" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="2">
         <v>1014</v>
       </c>
@@ -2115,7 +1498,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="20" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="2">
         <v>1015</v>
       </c>
@@ -2141,7 +1524,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="21" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="2">
         <v>1016</v>
       </c>
@@ -2167,7 +1550,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="22" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C22" s="2">
         <v>1017</v>
       </c>
@@ -2193,7 +1576,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="23" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="2">
         <v>1018</v>
       </c>
@@ -2219,7 +1602,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="24" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="2">
         <v>1019</v>
       </c>
@@ -2245,7 +1628,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="25" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="2">
         <v>1020</v>
       </c>
@@ -2271,7 +1654,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
+    <row r="26" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="2">
         <v>1021</v>
       </c>
@@ -2297,7 +1680,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" ht="20.1" customHeight="1" spans="3:10">
+    <row r="27" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="4">
         <v>1022</v>
       </c>
@@ -2320,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="20.1" customHeight="1" spans="3:10">
+    <row r="28" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C28" s="4">
         <v>1023</v>
       </c>
@@ -2336,17 +1719,15 @@
       <c r="G28" s="4">
         <v>1</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="H28" s="2"/>
       <c r="I28" s="2">
         <v>-1</v>
       </c>
       <c r="J28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="20.1" customHeight="1" spans="3:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="4">
         <v>1024</v>
       </c>
@@ -2370,7 +1751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="20.1" customHeight="1" spans="3:10">
+    <row r="30" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C30" s="4">
         <v>1025</v>
       </c>
@@ -2386,22 +1767,20 @@
       <c r="G30" s="4">
         <v>1</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="H30" s="2"/>
       <c r="I30" s="2">
         <v>-1</v>
       </c>
       <c r="J30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="20.1" customHeight="1" spans="3:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="2">
         <v>1026</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>33</v>
@@ -2419,16 +1798,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="20.1" customHeight="1" spans="3:10">
+    <row r="32" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="4">
         <v>1027</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="F32" s="4">
         <v>1</v>
       </c>
@@ -2442,16 +1821,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="20.1" customHeight="1" spans="3:10">
+    <row r="33" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="2">
         <v>1028</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="F33" s="4">
         <v>1</v>
       </c>
@@ -2465,16 +1844,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="20.1" customHeight="1" spans="3:10">
+    <row r="34" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="4">
         <v>1029</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="F34" s="4">
         <v>1</v>
       </c>
@@ -2488,16 +1867,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="20.1" customHeight="1" spans="3:10">
+    <row r="35" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="4">
         <v>1030</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="F35" s="4">
         <v>1</v>
       </c>
@@ -2511,41 +1890,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="20.1" customHeight="1" spans="3:10">
+    <row r="36" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="4">
         <v>1031</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="F36" s="4">
         <v>1</v>
       </c>
       <c r="G36" s="4">
         <v>1</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>80</v>
-      </c>
+      <c r="H36" s="2"/>
       <c r="I36" s="2">
         <v>-1</v>
       </c>
       <c r="J36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="20.1" customHeight="1" spans="3:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C37" s="4">
         <v>1032</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
@@ -2560,15 +1937,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="20.1" customHeight="1" spans="3:10">
+    <row r="38" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C38" s="4">
         <v>1033</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F38" s="4">
         <v>1</v>
@@ -2583,15 +1960,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="20.1" customHeight="1" spans="3:10">
+    <row r="39" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C39" s="4">
         <v>1034</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F39" s="4">
         <v>1</v>
@@ -2606,15 +1983,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" ht="20.1" customHeight="1" spans="3:10">
+    <row r="40" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C40" s="4">
         <v>1035</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F40" s="4">
         <v>1</v>
@@ -2629,15 +2006,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="20.1" customHeight="1" spans="3:10">
+    <row r="41" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C41" s="4">
         <v>1036</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F41" s="4">
         <v>1</v>
@@ -2652,15 +2029,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="20.1" customHeight="1" spans="3:10">
+    <row r="42" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C42" s="4">
         <v>1037</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F42" s="4">
         <v>1</v>
@@ -2675,15 +2052,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="20.1" customHeight="1" spans="3:10">
+    <row r="43" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C43" s="4">
         <v>1038</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F43" s="4">
         <v>1</v>
@@ -2698,15 +2075,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="20.1" customHeight="1" spans="3:10">
+    <row r="44" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C44" s="4">
         <v>1039</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F44" s="4">
         <v>1</v>
@@ -2721,15 +2098,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="20.1" customHeight="1" spans="3:10">
+    <row r="45" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C45" s="4">
         <v>1040</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F45" s="4">
         <v>1</v>
@@ -2738,24 +2115,24 @@
         <v>1</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="I45" s="2">
         <v>-1</v>
       </c>
       <c r="J45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="20.1" customHeight="1" spans="3:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C46" s="4">
         <v>1041</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F46" s="4">
         <v>1</v>
@@ -2770,15 +2147,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="20.1" customHeight="1" spans="3:10">
+    <row r="47" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="4">
         <v>1042</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F47" s="4">
         <v>1</v>
@@ -2793,12 +2170,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="20.1" customHeight="1" spans="3:10">
+    <row r="48" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C48" s="4">
         <v>1043</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F48" s="4">
         <v>1</v>
@@ -2816,12 +2193,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="20.1" customHeight="1" spans="3:10">
+    <row r="49" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C49" s="4">
         <v>1044</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
@@ -2829,25 +2206,23 @@
       <c r="G49" s="4">
         <v>1</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="H49" s="2"/>
       <c r="I49" s="2">
         <v>-1</v>
       </c>
       <c r="J49" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" ht="20.1" customHeight="1" spans="3:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C50" s="4">
         <v>1045</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
@@ -2855,25 +2230,23 @@
       <c r="G50" s="4">
         <v>1</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="H50" s="2"/>
       <c r="I50" s="2">
         <v>-1</v>
       </c>
       <c r="J50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" ht="20.1" customHeight="1" spans="3:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="4">
         <v>1046</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -2888,15 +2261,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="20.1" customHeight="1" spans="3:10">
+    <row r="52" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="4">
         <v>1047</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -2911,15 +2284,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="20.1" customHeight="1" spans="3:10">
+    <row r="53" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="4">
         <v>1048</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -2934,15 +2307,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="20.1" customHeight="1" spans="3:10">
+    <row r="54" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="4">
         <v>1049</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -2957,15 +2330,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" ht="20.1" customHeight="1" spans="3:10">
+    <row r="55" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C55" s="4">
         <v>1050</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
@@ -2980,15 +2353,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="20.1" customHeight="1" spans="3:10">
+    <row r="56" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4">
         <v>1051</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -3003,15 +2376,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="20.1" customHeight="1" spans="3:10">
+    <row r="57" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C57" s="4">
         <v>1052</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F57" s="4">
         <v>1</v>
@@ -3026,18 +2399,18 @@
         <v>-1</v>
       </c>
       <c r="J57" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" ht="20.1" customHeight="1" spans="3:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C58" s="4">
         <v>1053</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F58" s="4">
         <v>2</v>
@@ -3052,15 +2425,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="20.1" customHeight="1" spans="3:10">
+    <row r="59" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="4">
         <v>1054</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F59" s="4">
         <v>1</v>
@@ -3075,15 +2448,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="20.1" customHeight="1" spans="3:10">
+    <row r="60" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C60" s="4">
         <v>1055</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F60" s="4">
         <v>1</v>
@@ -3091,25 +2464,23 @@
       <c r="G60" s="4">
         <v>1</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="H60" s="2"/>
       <c r="I60" s="2">
         <v>-1</v>
       </c>
       <c r="J60" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" ht="20.1" customHeight="1" spans="3:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C61" s="4">
         <v>1056</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F61" s="4">
         <v>1</v>
@@ -3124,15 +2495,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="20.1" customHeight="1" spans="3:10">
+    <row r="62" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C62" s="4">
         <v>1057</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F62" s="4">
         <v>1</v>
@@ -3140,25 +2511,23 @@
       <c r="G62" s="4">
         <v>1</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="H62" s="2"/>
       <c r="I62" s="2">
         <v>-1</v>
       </c>
       <c r="J62" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" ht="20.1" customHeight="1" spans="3:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C63" s="4">
         <v>1058</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F63" s="4">
         <v>1</v>
@@ -3166,25 +2535,23 @@
       <c r="G63" s="4">
         <v>1</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="H63" s="2"/>
       <c r="I63" s="2">
         <v>-1</v>
       </c>
       <c r="J63" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" ht="20.1" customHeight="1" spans="3:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C64" s="4">
         <v>1059</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F64" s="4">
         <v>1</v>
@@ -3192,9 +2559,7 @@
       <c r="G64" s="4">
         <v>1</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="H64" s="2"/>
       <c r="I64" s="2">
         <v>-1</v>
       </c>
@@ -3202,12 +2567,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" ht="20.1" customHeight="1" spans="3:12">
+    <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C65" s="4">
         <v>1060</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -3228,12 +2593,12 @@
         <v>20001</v>
       </c>
     </row>
-    <row r="66" ht="20.1" customHeight="1" spans="3:12">
+    <row r="66" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C66" s="4">
         <v>1061</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>
@@ -3254,15 +2619,15 @@
         <v>20001</v>
       </c>
     </row>
-    <row r="67" ht="18.75" customHeight="1" spans="3:12">
+    <row r="67" spans="3:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C67" s="4">
         <v>1062</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F67" s="4">
         <v>1</v>
@@ -3283,15 +2648,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" ht="20.1" customHeight="1" spans="3:12">
+    <row r="68" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C68" s="4">
         <v>1063</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F68" s="4">
         <v>1</v>
@@ -3312,15 +2677,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" ht="20.1" customHeight="1" spans="3:12">
+    <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C69" s="4">
         <v>1064</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F69" s="4">
         <v>1</v>
@@ -3341,15 +2706,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" ht="20.1" customHeight="1" spans="3:12">
+    <row r="70" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C70" s="4">
         <v>1065</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F70" s="4">
         <v>1</v>
@@ -3370,15 +2735,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="20.1" customHeight="1" spans="3:12">
+    <row r="71" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C71" s="4">
         <v>1066</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F71" s="4">
         <v>1</v>
@@ -3399,15 +2764,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="20.1" customHeight="1" spans="3:12">
+    <row r="72" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C72" s="4">
         <v>1067</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F72" s="4">
         <v>1</v>
@@ -3428,15 +2793,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" ht="20.1" customHeight="1" spans="3:12">
+    <row r="73" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C73" s="4">
         <v>1068</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F73" s="4">
         <v>1</v>
@@ -3457,15 +2822,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:12">
+    <row r="74" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C74" s="4">
         <v>1069</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F74" s="4">
         <v>1</v>
@@ -3486,15 +2851,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" ht="20.1" customHeight="1" spans="3:12">
+    <row r="75" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C75" s="4">
         <v>1070</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F75" s="4">
         <v>1</v>
@@ -3515,15 +2880,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" ht="20.1" customHeight="1" spans="3:10">
+    <row r="76" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C76" s="4">
         <v>1071</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F76" s="4">
         <v>1</v>
@@ -3538,15 +2903,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" ht="20.1" customHeight="1" spans="3:10">
+    <row r="77" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C77" s="4">
         <v>1072</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
@@ -3561,15 +2926,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" ht="20.1" customHeight="1" spans="3:10">
+    <row r="78" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C78" s="4">
         <v>1073</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F78" s="4">
         <v>1</v>
@@ -3584,12 +2949,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" ht="20.1" customHeight="1" spans="3:10">
+    <row r="79" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C79" s="4">
         <v>1074</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F79" s="4">
         <v>1</v>
@@ -3598,24 +2963,24 @@
         <v>1</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I79" s="2">
         <v>-1</v>
       </c>
       <c r="J79" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" ht="20.1" customHeight="1" spans="3:10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C80" s="4">
         <v>1075</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F80" s="4">
         <v>1</v>
@@ -3630,19 +2995,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="20.1" customHeight="1"/>
-    <row r="82" ht="20.1" customHeight="1"/>
-    <row r="83" ht="20.1" customHeight="1"/>
-    <row r="84" ht="20.1" customHeight="1"/>
-    <row r="85" ht="20.1" customHeight="1"/>
-    <row r="86" ht="20.1" customHeight="1"/>
-    <row r="87" ht="20.1" customHeight="1"/>
-    <row r="88" ht="20.1" customHeight="1"/>
-    <row r="89" ht="20.1" customHeight="1"/>
+    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/FuntionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/FuntionConfig.xlsx
@@ -1,39 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83584392-5CF2-459E-84E2-BF592B282D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -42,7 +48,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -51,14 +56,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -67,7 +71,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -76,14 +79,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="I4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -92,7 +94,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="165">
   <si>
     <t>#</t>
   </si>
@@ -299,123 +300,126 @@
     <t>UIHongBao</t>
   </si>
   <si>
+    <t>收集</t>
+  </si>
+  <si>
+    <t>UIShouJi</t>
+  </si>
+  <si>
+    <t>战场活动</t>
+  </si>
+  <si>
+    <t>UIBattle</t>
+  </si>
+  <si>
+    <t>附魔学习</t>
+  </si>
+  <si>
+    <t>挑战之地</t>
+  </si>
+  <si>
+    <t>UITowerDungeon</t>
+  </si>
+  <si>
+    <t>试炼副本</t>
+  </si>
+  <si>
+    <t>UITrial</t>
+  </si>
+  <si>
+    <t>神器商人</t>
+  </si>
+  <si>
+    <t>UIShenQiMake</t>
+  </si>
+  <si>
+    <t>坐骑</t>
+  </si>
+  <si>
+    <t>UIZuoQi</t>
+  </si>
+  <si>
+    <t>角斗场</t>
+  </si>
+  <si>
+    <t>UITaskGet</t>
+  </si>
+  <si>
+    <t>家园仓库</t>
+  </si>
+  <si>
+    <t>UIJiaYuanWarehouse</t>
+  </si>
+  <si>
+    <t>家园管家</t>
+  </si>
+  <si>
+    <t>UIJiaYuanUpLv</t>
+  </si>
+  <si>
+    <t>农场商店</t>
+  </si>
+  <si>
+    <t>UIUIJiaYuanMystery</t>
+  </si>
+  <si>
+    <t>牧场商店</t>
+  </si>
+  <si>
+    <t>UIJiaYuanPasture</t>
+  </si>
+  <si>
+    <t>家园收购</t>
+  </si>
+  <si>
+    <t>UIJiaYuanFood</t>
+  </si>
+  <si>
+    <t>家园大师</t>
+  </si>
+  <si>
+    <t>UIJiaYuanDaShi</t>
+  </si>
+  <si>
+    <t>宠物管理员</t>
+  </si>
+  <si>
+    <t>UIJiaYuanPet</t>
+  </si>
+  <si>
+    <t>家园记录</t>
+  </si>
+  <si>
+    <t>UIJiaYuanRecord</t>
+  </si>
+  <si>
+    <t>拍卖特惠</t>
+  </si>
+  <si>
+    <t>UIPaiMaiAuction</t>
+  </si>
+  <si>
+    <t>20;30@21;00</t>
+  </si>
+  <si>
+    <t>家族捐献</t>
+  </si>
+  <si>
+    <t>UIUnionDonation</t>
+  </si>
+  <si>
+    <t>家族修炼</t>
+  </si>
+  <si>
+    <t>UIUnionXiuLian</t>
+  </si>
+  <si>
+    <t>家族BOSS</t>
+  </si>
+  <si>
     <t>9;30@23;00</t>
   </si>
   <si>
-    <t>收集</t>
-  </si>
-  <si>
-    <t>UIShouJi</t>
-  </si>
-  <si>
-    <t>战场活动</t>
-  </si>
-  <si>
-    <t>UIBattle</t>
-  </si>
-  <si>
-    <t>附魔学习</t>
-  </si>
-  <si>
-    <t>挑战之地</t>
-  </si>
-  <si>
-    <t>UITowerDungeon</t>
-  </si>
-  <si>
-    <t>试炼副本</t>
-  </si>
-  <si>
-    <t>UITrial</t>
-  </si>
-  <si>
-    <t>神器商人</t>
-  </si>
-  <si>
-    <t>UIShenQiMake</t>
-  </si>
-  <si>
-    <t>坐骑</t>
-  </si>
-  <si>
-    <t>UIZuoQi</t>
-  </si>
-  <si>
-    <t>角斗场</t>
-  </si>
-  <si>
-    <t>UITaskGet</t>
-  </si>
-  <si>
-    <t>家园仓库</t>
-  </si>
-  <si>
-    <t>UIJiaYuanWarehouse</t>
-  </si>
-  <si>
-    <t>家园管家</t>
-  </si>
-  <si>
-    <t>UIJiaYuanUpLv</t>
-  </si>
-  <si>
-    <t>农场商店</t>
-  </si>
-  <si>
-    <t>UIUIJiaYuanMystery</t>
-  </si>
-  <si>
-    <t>牧场商店</t>
-  </si>
-  <si>
-    <t>UIJiaYuanPasture</t>
-  </si>
-  <si>
-    <t>家园收购</t>
-  </si>
-  <si>
-    <t>UIJiaYuanFood</t>
-  </si>
-  <si>
-    <t>家园大师</t>
-  </si>
-  <si>
-    <t>UIJiaYuanDaShi</t>
-  </si>
-  <si>
-    <t>宠物管理员</t>
-  </si>
-  <si>
-    <t>UIJiaYuanPet</t>
-  </si>
-  <si>
-    <t>家园记录</t>
-  </si>
-  <si>
-    <t>UIJiaYuanRecord</t>
-  </si>
-  <si>
-    <t>拍卖特惠</t>
-  </si>
-  <si>
-    <t>UIPaiMaiAuction</t>
-  </si>
-  <si>
-    <t>家族捐献</t>
-  </si>
-  <si>
-    <t>UIUnionDonation</t>
-  </si>
-  <si>
-    <t>家族修炼</t>
-  </si>
-  <si>
-    <t>UIUnionXiuLian</t>
-  </si>
-  <si>
-    <t>家族BOSS</t>
-  </si>
-  <si>
     <t>家族争霸</t>
   </si>
   <si>
@@ -599,15 +603,20 @@
     <t>DlgPetEquipMake</t>
   </si>
   <si>
-    <t>20;30@21;00</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>喜从天降(单人模式)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,7 +628,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -627,31 +635,165 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -664,8 +806,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -673,9 +1001,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -696,17 +1266,61 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -993,19 +1607,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="J77" sqref="J77"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="B81" sqref="$A81:$XFD81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
@@ -1022,7 +1636,7 @@
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1034,7 +1648,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -1048,7 +1662,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1080,7 +1694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1110,7 +1724,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
@@ -1140,7 +1754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C6" s="2">
         <v>1001</v>
       </c>
@@ -1163,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:12" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" s="2" customFormat="1" ht="20.1" customHeight="1" spans="3:10">
       <c r="C7" s="2">
         <v>1002</v>
       </c>
@@ -1186,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C8" s="2">
         <v>1003</v>
       </c>
@@ -1212,7 +1826,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C9" s="2">
         <v>1004</v>
       </c>
@@ -1238,7 +1852,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C10" s="2">
         <v>1005</v>
       </c>
@@ -1264,7 +1878,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C11" s="2">
         <v>1006</v>
       </c>
@@ -1290,7 +1904,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C12" s="2">
         <v>1007</v>
       </c>
@@ -1316,7 +1930,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C13" s="2">
         <v>1008</v>
       </c>
@@ -1342,7 +1956,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C14" s="2">
         <v>1009</v>
       </c>
@@ -1368,7 +1982,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C15" s="2">
         <v>1010</v>
       </c>
@@ -1394,7 +2008,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C16" s="2">
         <v>1011</v>
       </c>
@@ -1420,7 +2034,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C17" s="2">
         <v>1012</v>
       </c>
@@ -1446,7 +2060,7 @@
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C18" s="2">
         <v>1013</v>
       </c>
@@ -1472,7 +2086,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C19" s="2">
         <v>1014</v>
       </c>
@@ -1498,7 +2112,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C20" s="2">
         <v>1015</v>
       </c>
@@ -1524,7 +2138,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C21" s="2">
         <v>1016</v>
       </c>
@@ -1550,7 +2164,7 @@
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C22" s="2">
         <v>1017</v>
       </c>
@@ -1576,7 +2190,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C23" s="2">
         <v>1018</v>
       </c>
@@ -1602,7 +2216,7 @@
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C24" s="2">
         <v>1019</v>
       </c>
@@ -1628,7 +2242,7 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C25" s="2">
         <v>1020</v>
       </c>
@@ -1654,7 +2268,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="3:12">
       <c r="C26" s="2">
         <v>1021</v>
       </c>
@@ -1680,7 +2294,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" ht="20.1" customHeight="1" spans="3:10">
       <c r="C27" s="4">
         <v>1022</v>
       </c>
@@ -1703,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" ht="20.1" customHeight="1" spans="3:10">
       <c r="C28" s="4">
         <v>1023</v>
       </c>
@@ -1727,15 +2341,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" ht="20.1" customHeight="1" spans="3:10">
       <c r="C29" s="4">
         <v>1024</v>
       </c>
       <c r="D29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="F29" s="4">
         <v>1</v>
@@ -1751,15 +2365,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" ht="20.1" customHeight="1" spans="3:10">
       <c r="C30" s="4">
         <v>1025</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="F30" s="4">
         <v>1</v>
@@ -1775,12 +2389,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" ht="20.1" customHeight="1" spans="3:10">
       <c r="C31" s="2">
         <v>1026</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>33</v>
@@ -1798,16 +2412,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" ht="20.1" customHeight="1" spans="3:10">
       <c r="C32" s="4">
         <v>1027</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F32" s="4">
         <v>1</v>
       </c>
@@ -1821,16 +2435,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" ht="20.1" customHeight="1" spans="3:10">
       <c r="C33" s="2">
         <v>1028</v>
       </c>
       <c r="D33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="F33" s="4">
         <v>1</v>
       </c>
@@ -1844,16 +2458,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" ht="20.1" customHeight="1" spans="3:10">
       <c r="C34" s="4">
         <v>1029</v>
       </c>
       <c r="D34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="F34" s="4">
         <v>1</v>
       </c>
@@ -1867,16 +2481,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" ht="20.1" customHeight="1" spans="3:10">
       <c r="C35" s="4">
         <v>1030</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="F35" s="4">
         <v>1</v>
       </c>
@@ -1890,15 +2504,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" ht="20.1" customHeight="1" spans="3:10">
       <c r="C36" s="4">
         <v>1031</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="F36" s="4">
         <v>1</v>
@@ -1914,16 +2528,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" ht="20.1" customHeight="1" spans="3:10">
       <c r="C37" s="4">
         <v>1032</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="F37" s="4">
         <v>1</v>
       </c>
@@ -1937,16 +2551,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" ht="20.1" customHeight="1" spans="3:10">
       <c r="C38" s="4">
         <v>1033</v>
       </c>
       <c r="D38" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="F38" s="4">
         <v>1</v>
       </c>
@@ -1960,16 +2574,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" ht="20.1" customHeight="1" spans="3:10">
       <c r="C39" s="4">
         <v>1034</v>
       </c>
       <c r="D39" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="F39" s="4">
         <v>1</v>
       </c>
@@ -1983,16 +2597,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" ht="20.1" customHeight="1" spans="3:10">
       <c r="C40" s="4">
         <v>1035</v>
       </c>
       <c r="D40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="F40" s="4">
         <v>1</v>
       </c>
@@ -2006,16 +2620,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" ht="20.1" customHeight="1" spans="3:10">
       <c r="C41" s="4">
         <v>1036</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="F41" s="4">
         <v>1</v>
       </c>
@@ -2029,16 +2643,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" ht="20.1" customHeight="1" spans="3:10">
       <c r="C42" s="4">
         <v>1037</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="F42" s="4">
         <v>1</v>
       </c>
@@ -2052,16 +2666,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" ht="20.1" customHeight="1" spans="3:10">
       <c r="C43" s="4">
         <v>1038</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="F43" s="4">
         <v>1</v>
       </c>
@@ -2075,16 +2689,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" ht="20.1" customHeight="1" spans="3:10">
       <c r="C44" s="4">
         <v>1039</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="F44" s="4">
         <v>1</v>
       </c>
@@ -2098,25 +2712,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" ht="20.1" customHeight="1" spans="3:10">
       <c r="C45" s="4">
         <v>1040</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F45" s="4">
-        <v>1</v>
-      </c>
-      <c r="G45" s="4">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="I45" s="2">
         <v>-1</v>
       </c>
@@ -2124,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" ht="20.1" customHeight="1" spans="3:10">
       <c r="C46" s="4">
         <v>1041</v>
       </c>
@@ -2147,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" ht="20.1" customHeight="1" spans="3:10">
       <c r="C47" s="4">
         <v>1042</v>
       </c>
@@ -2170,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" ht="20.1" customHeight="1" spans="3:10">
       <c r="C48" s="4">
         <v>1043</v>
       </c>
@@ -2184,7 +2798,7 @@
         <v>1</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="I48" s="2">
         <v>-1</v>
@@ -2193,12 +2807,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" ht="20.1" customHeight="1" spans="3:10">
       <c r="C49" s="4">
         <v>1044</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F49" s="4">
         <v>1</v>
@@ -2214,15 +2828,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" ht="20.1" customHeight="1" spans="3:10">
       <c r="C50" s="4">
         <v>1045</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
@@ -2238,15 +2852,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" ht="20.1" customHeight="1" spans="3:10">
       <c r="C51" s="4">
         <v>1046</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F51" s="4">
         <v>1</v>
@@ -2261,15 +2875,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" ht="20.1" customHeight="1" spans="3:10">
       <c r="C52" s="4">
         <v>1047</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F52" s="4">
         <v>1</v>
@@ -2284,15 +2898,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" ht="20.1" customHeight="1" spans="3:10">
       <c r="C53" s="4">
         <v>1048</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F53" s="4">
         <v>1</v>
@@ -2307,15 +2921,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" ht="20.1" customHeight="1" spans="3:10">
       <c r="C54" s="4">
         <v>1049</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F54" s="4">
         <v>1</v>
@@ -2330,15 +2944,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" ht="20.1" customHeight="1" spans="3:10">
       <c r="C55" s="4">
         <v>1050</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F55" s="4">
         <v>1</v>
@@ -2353,15 +2967,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" ht="20.1" customHeight="1" spans="3:10">
       <c r="C56" s="4">
         <v>1051</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F56" s="4">
         <v>1</v>
@@ -2376,15 +2990,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" ht="20.1" customHeight="1" spans="3:10">
       <c r="C57" s="4">
         <v>1052</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F57" s="4">
         <v>1</v>
@@ -2393,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="I57" s="2">
         <v>-1</v>
@@ -2402,15 +3016,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" ht="20.1" customHeight="1" spans="3:10">
       <c r="C58" s="4">
         <v>1053</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F58" s="4">
         <v>2</v>
@@ -2425,15 +3039,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" ht="20.1" customHeight="1" spans="3:10">
       <c r="C59" s="4">
         <v>1054</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F59" s="4">
         <v>1</v>
@@ -2448,15 +3062,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" ht="20.1" customHeight="1" spans="3:10">
       <c r="C60" s="4">
         <v>1055</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F60" s="4">
         <v>1</v>
@@ -2472,15 +3086,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" ht="20.1" customHeight="1" spans="3:10">
       <c r="C61" s="4">
         <v>1056</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F61" s="4">
         <v>1</v>
@@ -2495,15 +3109,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" ht="20.1" customHeight="1" spans="3:10">
       <c r="C62" s="4">
         <v>1057</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F62" s="4">
         <v>1</v>
@@ -2519,15 +3133,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" ht="20.1" customHeight="1" spans="3:10">
       <c r="C63" s="4">
         <v>1058</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F63" s="4">
         <v>1</v>
@@ -2543,15 +3157,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" ht="20.1" customHeight="1" spans="3:10">
       <c r="C64" s="4">
         <v>1059</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F64" s="4">
         <v>1</v>
@@ -2567,12 +3181,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" ht="20.1" customHeight="1" spans="3:12">
       <c r="C65" s="4">
         <v>1060</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F65" s="4">
         <v>1</v>
@@ -2593,12 +3207,12 @@
         <v>20001</v>
       </c>
     </row>
-    <row r="66" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" ht="20.1" customHeight="1" spans="3:12">
       <c r="C66" s="4">
         <v>1061</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F66" s="4">
         <v>1</v>
@@ -2619,15 +3233,15 @@
         <v>20001</v>
       </c>
     </row>
-    <row r="67" spans="3:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" ht="18.75" customHeight="1" spans="3:12">
       <c r="C67" s="4">
         <v>1062</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F67" s="4">
         <v>1</v>
@@ -2648,15 +3262,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" ht="20.1" customHeight="1" spans="3:12">
       <c r="C68" s="4">
         <v>1063</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F68" s="4">
         <v>1</v>
@@ -2677,15 +3291,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" ht="20.1" customHeight="1" spans="3:12">
       <c r="C69" s="4">
         <v>1064</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F69" s="4">
         <v>1</v>
@@ -2706,15 +3320,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" ht="20.1" customHeight="1" spans="3:12">
       <c r="C70" s="4">
         <v>1065</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F70" s="4">
         <v>1</v>
@@ -2735,15 +3349,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" ht="20.1" customHeight="1" spans="3:12">
       <c r="C71" s="4">
         <v>1066</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F71" s="4">
         <v>1</v>
@@ -2764,15 +3378,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" ht="20.1" customHeight="1" spans="3:12">
       <c r="C72" s="4">
         <v>1067</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F72" s="4">
         <v>1</v>
@@ -2793,15 +3407,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" ht="20.1" customHeight="1" spans="3:12">
       <c r="C73" s="4">
         <v>1068</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F73" s="4">
         <v>1</v>
@@ -2822,15 +3436,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" ht="20.1" customHeight="1" spans="3:12">
       <c r="C74" s="4">
         <v>1069</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F74" s="4">
         <v>1</v>
@@ -2851,15 +3465,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" ht="20.1" customHeight="1" spans="3:12">
       <c r="C75" s="4">
         <v>1070</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F75" s="4">
         <v>1</v>
@@ -2880,15 +3494,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" ht="20.1" customHeight="1" spans="3:10">
       <c r="C76" s="4">
         <v>1071</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F76" s="4">
         <v>1</v>
@@ -2903,15 +3517,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" ht="20.1" customHeight="1" spans="3:10">
       <c r="C77" s="4">
         <v>1072</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F77" s="4">
         <v>1</v>
@@ -2926,15 +3540,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" ht="20.1" customHeight="1" spans="3:10">
       <c r="C78" s="4">
         <v>1073</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F78" s="4">
         <v>1</v>
@@ -2949,12 +3563,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" ht="20.1" customHeight="1" spans="3:10">
       <c r="C79" s="4">
         <v>1074</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F79" s="4">
         <v>1</v>
@@ -2963,7 +3577,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I79" s="2">
         <v>-1</v>
@@ -2972,15 +3586,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" ht="20.1" customHeight="1" spans="3:10">
       <c r="C80" s="4">
         <v>1075</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F80" s="4">
         <v>1</v>
@@ -2995,19 +3609,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="20.1" customHeight="1" spans="3:10">
+      <c r="C81" s="4">
+        <v>1076</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4">
+        <v>1</v>
+      </c>
+      <c r="G81" s="4">
+        <v>1</v>
+      </c>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" ht="20.1" customHeight="1"/>
+    <row r="83" ht="20.1" customHeight="1"/>
+    <row r="84" ht="20.1" customHeight="1"/>
+    <row r="85" ht="20.1" customHeight="1"/>
+    <row r="86" ht="20.1" customHeight="1"/>
+    <row r="87" ht="20.1" customHeight="1"/>
+    <row r="88" ht="20.1" customHeight="1"/>
+    <row r="89" ht="20.1" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/FuntionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/FuntionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -318,7 +318,7 @@
     <t>挑战之地</t>
   </si>
   <si>
-    <t>UITowerDungeon</t>
+    <t>UITower</t>
   </si>
   <si>
     <t>试炼副本</t>
@@ -600,7 +600,7 @@
     <t>宠物装备制造师</t>
   </si>
   <si>
-    <t>DlgPetEquipMake</t>
+    <t>UIPetEquipMake</t>
   </si>
   <si>
     <t>喜从天降(单人模式)</t>
@@ -1615,8 +1615,8 @@
   <sheetPr/>
   <dimension ref="C1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="B81" sqref="$A81:$XFD81"/>
+    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3616,7 +3616,6 @@
       <c r="D81" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E81" s="4"/>
       <c r="F81" s="4">
         <v>1</v>
       </c>

--- a/Unity/Assets/Config/Excel/FuntionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/FuntionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12795"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="FunctionOpenProto" sheetId="1" r:id="rId1"/>
@@ -1615,8 +1615,8 @@
   <sheetPr/>
   <dimension ref="C1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3230,7 +3230,7 @@
         <v>2000001</v>
       </c>
       <c r="L66" s="2">
-        <v>20001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" ht="18.75" customHeight="1" spans="3:12">

--- a/Unity/Assets/Config/Excel/FuntionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/FuntionConfig.xlsx
@@ -1615,7 +1615,7 @@
   <sheetPr/>
   <dimension ref="C1:L89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
       <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
